--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -9,15 +9,13 @@
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="TestData" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>LoginTest</t>
   </si>
@@ -49,28 +47,7 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>ChangePasswordTest</t>
-  </si>
-  <si>
-    <t>OldPassword</t>
-  </si>
-  <si>
-    <t>NewPassword</t>
-  </si>
-  <si>
     <t>TCID</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Unisys*1234</t>
-  </si>
-  <si>
-    <t>Unsuccessfull</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>admin</t>
@@ -118,24 +95,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -250,17 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -584,26 +545,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -617,7 +578,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,122 +594,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -756,128 +717,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="its.thakur@gmail.com"/>
-    <hyperlink ref="C8:E8" r:id="rId2" display="its.thakur@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>